--- a/JupyterNotebooks/AveragedIntensites/GossF-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW25.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GossF-HW25.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GossF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +952,7 @@
         <v>0.9946035920634615</v>
       </c>
       <c r="D13">
-        <v>0.9943698965328299</v>
+        <v>0.9943698965328298</v>
       </c>
       <c r="E13">
         <v>0.9940530526952971</v>
@@ -970,13 +970,13 @@
         <v>0.9946356703298409</v>
       </c>
       <c r="J13">
-        <v>0.9943698965328299</v>
+        <v>0.9943698965328298</v>
       </c>
       <c r="K13">
-        <v>0.9942114746140636</v>
+        <v>0.9942114746140635</v>
       </c>
       <c r="L13">
-        <v>0.9944075333387625</v>
+        <v>0.9944075333387624</v>
       </c>
       <c r="M13">
         <v>0.9943053701030045</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9966284859637921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9898537016774713</v>
+      </c>
+      <c r="D16">
+        <v>0.9491496470760641</v>
+      </c>
+      <c r="E16">
+        <v>1.018040081265707</v>
+      </c>
+      <c r="F16">
+        <v>0.9898537016774713</v>
+      </c>
+      <c r="G16">
+        <v>0.9478784471131123</v>
+      </c>
+      <c r="H16">
+        <v>1.086662413002611</v>
+      </c>
+      <c r="I16">
+        <v>1.010712039757009</v>
+      </c>
+      <c r="J16">
+        <v>0.9491496470760641</v>
+      </c>
+      <c r="K16">
+        <v>0.9835948641708856</v>
+      </c>
+      <c r="L16">
+        <v>0.9867242829241785</v>
+      </c>
+      <c r="M16">
+        <v>1.000382721648662</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/GossF-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9898537016774713</v>

--- a/JupyterNotebooks/AveragedIntensites/GossF-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW25.xlsx
@@ -955,7 +955,7 @@
         <v>0.9946035920634615</v>
       </c>
       <c r="D13">
-        <v>0.9943698965328298</v>
+        <v>0.9943698965328299</v>
       </c>
       <c r="E13">
         <v>0.9940530526952971</v>
@@ -973,13 +973,13 @@
         <v>0.9946356703298409</v>
       </c>
       <c r="J13">
-        <v>0.9943698965328298</v>
+        <v>0.9943698965328299</v>
       </c>
       <c r="K13">
-        <v>0.9942114746140635</v>
+        <v>0.9942114746140636</v>
       </c>
       <c r="L13">
-        <v>0.9944075333387624</v>
+        <v>0.9944075333387625</v>
       </c>
       <c r="M13">
         <v>0.9943053701030045</v>

--- a/JupyterNotebooks/AveragedIntensites/GossF-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossF-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.107011999999999</v>
+        <v>0.9898537016774713</v>
       </c>
       <c r="D10">
-        <v>1.105512000000001</v>
+        <v>0.9491496470760641</v>
       </c>
       <c r="E10">
-        <v>0.9013039999999988</v>
+        <v>1.018040081265707</v>
       </c>
       <c r="F10">
-        <v>1.107011999999999</v>
+        <v>0.9898537016774713</v>
       </c>
       <c r="G10">
-        <v>1.072956000000001</v>
+        <v>0.9478784471131123</v>
       </c>
       <c r="H10">
-        <v>0.7451279999999989</v>
+        <v>1.086662413002611</v>
       </c>
       <c r="I10">
-        <v>0.9434079999999989</v>
+        <v>1.010712039757009</v>
       </c>
       <c r="J10">
-        <v>1.105512000000001</v>
+        <v>0.9491496470760641</v>
       </c>
       <c r="K10">
-        <v>1.003408</v>
+        <v>0.9835948641708856</v>
       </c>
       <c r="L10">
-        <v>1.05521</v>
+        <v>0.9867242829241785</v>
       </c>
       <c r="M10">
-        <v>0.9792199999999996</v>
+        <v>1.000382721648662</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.36</v>
+        <v>0.905430746801493</v>
       </c>
       <c r="D11">
-        <v>0.53</v>
+        <v>1.534142505545308</v>
       </c>
       <c r="E11">
-        <v>0.99</v>
+        <v>0.8391002428608455</v>
       </c>
       <c r="F11">
-        <v>1.36</v>
+        <v>0.905430746801493</v>
       </c>
       <c r="G11">
-        <v>0.7884749999999986</v>
+        <v>1.291772895832493</v>
       </c>
       <c r="H11">
-        <v>0.96</v>
+        <v>0.5875720723398838</v>
       </c>
       <c r="I11">
-        <v>1.07</v>
+        <v>0.8561472057678349</v>
       </c>
       <c r="J11">
-        <v>0.53</v>
+        <v>1.534142505545308</v>
       </c>
       <c r="K11">
-        <v>0.76</v>
+        <v>1.186621374203077</v>
       </c>
       <c r="L11">
-        <v>1.06</v>
+        <v>1.046026060502285</v>
       </c>
       <c r="M11">
-        <v>0.9497458333333331</v>
+        <v>1.002360944857976</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.204740374527997</v>
+        <v>0.9042561087401912</v>
       </c>
       <c r="D12">
-        <v>0.7241934102528013</v>
+        <v>1.536670656902683</v>
       </c>
       <c r="E12">
-        <v>0.9929532376064024</v>
+        <v>0.8386816357067002</v>
       </c>
       <c r="F12">
-        <v>1.204740374527997</v>
+        <v>0.9042561087401912</v>
       </c>
       <c r="G12">
-        <v>0.8751236182016007</v>
+        <v>1.293077466992691</v>
       </c>
       <c r="H12">
-        <v>0.9778469556223971</v>
+        <v>0.586606018181125</v>
       </c>
       <c r="I12">
-        <v>1.039230459494401</v>
+        <v>0.855584556043029</v>
       </c>
       <c r="J12">
-        <v>0.7241934102528013</v>
+        <v>1.536670656902683</v>
       </c>
       <c r="K12">
-        <v>0.8585733239296018</v>
+        <v>1.187676146304692</v>
       </c>
       <c r="L12">
-        <v>1.031656849228799</v>
+        <v>1.045966127522441</v>
       </c>
       <c r="M12">
-        <v>0.9690146759509332</v>
+        <v>1.002479407094403</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9946035920634615</v>
+        <v>0.9052205473826705</v>
       </c>
       <c r="D13">
-        <v>0.9943698965328299</v>
+        <v>1.534528374753347</v>
       </c>
       <c r="E13">
-        <v>0.9940530526952971</v>
+        <v>0.839023427125616</v>
       </c>
       <c r="F13">
-        <v>0.9946035920634615</v>
+        <v>0.9052205473826705</v>
       </c>
       <c r="G13">
-        <v>0.9937692491363783</v>
+        <v>1.292015086970345</v>
       </c>
       <c r="H13">
-        <v>0.9944007598602194</v>
+        <v>0.5873699306972402</v>
       </c>
       <c r="I13">
-        <v>0.9946356703298409</v>
+        <v>0.8560630581158458</v>
       </c>
       <c r="J13">
-        <v>0.9943698965328299</v>
+        <v>1.534528374753347</v>
       </c>
       <c r="K13">
-        <v>0.9942114746140636</v>
+        <v>1.186775900939481</v>
       </c>
       <c r="L13">
-        <v>0.9944075333387625</v>
+        <v>1.045998224161076</v>
       </c>
       <c r="M13">
-        <v>0.9943053701030045</v>
+        <v>1.002370070840844</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9871724681607575</v>
+        <v>1.107011999999999</v>
       </c>
       <c r="D14">
-        <v>1.0121896884806</v>
+        <v>1.105512000000001</v>
       </c>
       <c r="E14">
-        <v>0.9930499070793373</v>
+        <v>0.9013039999999988</v>
       </c>
       <c r="F14">
-        <v>0.9871724681607575</v>
+        <v>1.107011999999999</v>
       </c>
       <c r="G14">
-        <v>1.000529217255022</v>
+        <v>1.072956000000001</v>
       </c>
       <c r="H14">
-        <v>0.9916620388927332</v>
+        <v>0.7451279999999989</v>
       </c>
       <c r="I14">
-        <v>0.9907378373093</v>
+        <v>0.9434079999999989</v>
       </c>
       <c r="J14">
-        <v>1.0121896884806</v>
+        <v>1.105512000000001</v>
       </c>
       <c r="K14">
-        <v>1.002619797779969</v>
+        <v>1.003408</v>
       </c>
       <c r="L14">
-        <v>0.9948961329703632</v>
+        <v>1.05521</v>
       </c>
       <c r="M14">
-        <v>0.9958901928629583</v>
+        <v>0.9792199999999996</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9828187211147899</v>
+        <v>1.36</v>
       </c>
       <c r="D15">
-        <v>1.035361777999287</v>
+        <v>0.53</v>
       </c>
       <c r="E15">
-        <v>0.9859507265059233</v>
+        <v>0.99</v>
       </c>
       <c r="F15">
-        <v>0.9828187211147899</v>
+        <v>1.36</v>
       </c>
       <c r="G15">
-        <v>1.016142821102964</v>
+        <v>0.7884749999999986</v>
       </c>
       <c r="H15">
-        <v>0.9751891190894817</v>
+        <v>0.96</v>
       </c>
       <c r="I15">
-        <v>0.9843077499703069</v>
+        <v>1.07</v>
       </c>
       <c r="J15">
-        <v>1.035361777999287</v>
+        <v>0.53</v>
       </c>
       <c r="K15">
-        <v>1.010656252252605</v>
+        <v>0.76</v>
       </c>
       <c r="L15">
-        <v>0.9967374866836973</v>
+        <v>1.06</v>
       </c>
       <c r="M15">
-        <v>0.9966284859637921</v>
+        <v>0.9497458333333331</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9898537016774713</v>
+        <v>1.204740374527997</v>
       </c>
       <c r="D16">
-        <v>0.9491496470760641</v>
+        <v>0.7241934102528013</v>
       </c>
       <c r="E16">
-        <v>1.018040081265707</v>
+        <v>0.9929532376064024</v>
       </c>
       <c r="F16">
-        <v>0.9898537016774713</v>
+        <v>1.204740374527997</v>
       </c>
       <c r="G16">
-        <v>0.9478784471131123</v>
+        <v>0.8751236182016007</v>
       </c>
       <c r="H16">
-        <v>1.086662413002611</v>
+        <v>0.9778469556223971</v>
       </c>
       <c r="I16">
-        <v>1.010712039757009</v>
+        <v>1.039230459494401</v>
       </c>
       <c r="J16">
-        <v>0.9491496470760641</v>
+        <v>0.7241934102528013</v>
       </c>
       <c r="K16">
-        <v>0.9835948641708856</v>
+        <v>0.8585733239296018</v>
       </c>
       <c r="L16">
-        <v>0.9867242829241785</v>
+        <v>1.031656849228799</v>
       </c>
       <c r="M16">
-        <v>1.000382721648662</v>
+        <v>0.9690146759509332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9946035920634615</v>
+      </c>
+      <c r="D17">
+        <v>0.9943698965328298</v>
+      </c>
+      <c r="E17">
+        <v>0.9940530526952971</v>
+      </c>
+      <c r="F17">
+        <v>0.9946035920634615</v>
+      </c>
+      <c r="G17">
+        <v>0.9937692491363783</v>
+      </c>
+      <c r="H17">
+        <v>0.9944007598602194</v>
+      </c>
+      <c r="I17">
+        <v>0.9946356703298409</v>
+      </c>
+      <c r="J17">
+        <v>0.9943698965328298</v>
+      </c>
+      <c r="K17">
+        <v>0.9942114746140635</v>
+      </c>
+      <c r="L17">
+        <v>0.9944075333387624</v>
+      </c>
+      <c r="M17">
+        <v>0.9943053701030045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9871724681607575</v>
+      </c>
+      <c r="D18">
+        <v>1.0121896884806</v>
+      </c>
+      <c r="E18">
+        <v>0.9930499070793373</v>
+      </c>
+      <c r="F18">
+        <v>0.9871724681607575</v>
+      </c>
+      <c r="G18">
+        <v>1.000529217255022</v>
+      </c>
+      <c r="H18">
+        <v>0.9916620388927332</v>
+      </c>
+      <c r="I18">
+        <v>0.9907378373093</v>
+      </c>
+      <c r="J18">
+        <v>1.0121896884806</v>
+      </c>
+      <c r="K18">
+        <v>1.002619797779969</v>
+      </c>
+      <c r="L18">
+        <v>0.9948961329703632</v>
+      </c>
+      <c r="M18">
+        <v>0.9958901928629583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9828187211147899</v>
+      </c>
+      <c r="D19">
+        <v>1.035361777999287</v>
+      </c>
+      <c r="E19">
+        <v>0.9859507265059233</v>
+      </c>
+      <c r="F19">
+        <v>0.9828187211147899</v>
+      </c>
+      <c r="G19">
+        <v>1.016142821102964</v>
+      </c>
+      <c r="H19">
+        <v>0.9751891190894817</v>
+      </c>
+      <c r="I19">
+        <v>0.9843077499703069</v>
+      </c>
+      <c r="J19">
+        <v>1.035361777999287</v>
+      </c>
+      <c r="K19">
+        <v>1.010656252252605</v>
+      </c>
+      <c r="L19">
+        <v>0.9967374866836973</v>
+      </c>
+      <c r="M19">
+        <v>0.9966284859637921</v>
       </c>
     </row>
   </sheetData>
